--- a/biology/Zoologie/Aparallactus_lunulatus/Aparallactus_lunulatus.xlsx
+++ b/biology/Zoologie/Aparallactus_lunulatus/Aparallactus_lunulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aparallactus lunulatus est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aparallactus lunulatus est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afrique du Sud ;
 au Botswana ;
 au Burkina Faso ;
@@ -559,9 +573,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Aparallactus lunulatus lunulatus (Peters, 1854)
 Aparallactus lunulatus nigrocollaris Chabanaud, 1916
 Aparallactus lunulatus scortecci Parker, 1949</t>
@@ -592,9 +608,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -623,7 +641,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chabanaud, 1916 : Enumération des Ophidiens non encore étudiés de l'Afrique occidentale, appartenant aux Collections du Muséum avec la description des espèces et des variétés nouvelles. Bulletin du Muséum national d'histoire naturelle, Paris, vol. 22, p. 362-382 (texte intégral).
 Parker, 1949 : The snakes of Somaliland and the Sokotra islands. Zoologische Verhandelingen, vol. 6, p. 1-115 (texte intégral).
